--- a/Team-Data/2008-09/2-26-2008-09.xlsx
+++ b/Team-Data/2008-09/2-26-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -750,10 +817,10 @@
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH2" t="n">
         <v>29</v>
@@ -798,7 +865,7 @@
         <v>14</v>
       </c>
       <c r="AV2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW2" t="n">
         <v>9</v>
@@ -810,10 +877,10 @@
         <v>11</v>
       </c>
       <c r="AZ2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BB2" t="n">
         <v>17</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F3" t="n">
         <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>0.776</v>
+        <v>0.78</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
         <v>16.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.393</v>
+        <v>0.39</v>
       </c>
       <c r="O3" t="n">
         <v>20.2</v>
       </c>
       <c r="P3" t="n">
-        <v>26.1</v>
+        <v>26.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.774</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.9</v>
@@ -908,25 +975,25 @@
         <v>8.199999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
         <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
         <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.7</v>
+        <v>101.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>2</v>
@@ -950,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM3" t="n">
         <v>20</v>
@@ -965,16 +1032,16 @@
         <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS3" t="n">
         <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
@@ -983,10 +1050,10 @@
         <v>27</v>
       </c>
       <c r="AW3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1168,7 +1235,7 @@
         <v>16</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -1212,61 +1279,61 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" t="n">
         <v>32</v>
       </c>
       <c r="G5" t="n">
-        <v>0.439</v>
+        <v>0.448</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L5" t="n">
         <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="N5" t="n">
         <v>0.379</v>
       </c>
       <c r="O5" t="n">
-        <v>19.3</v>
+        <v>19.5</v>
       </c>
       <c r="P5" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R5" t="n">
         <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V5" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1278,31 +1345,31 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.5</v>
+        <v>-1.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG5" t="n">
         <v>18</v>
       </c>
-      <c r="AG5" t="n">
-        <v>19</v>
-      </c>
       <c r="AH5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1311,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
         <v>22</v>
@@ -1329,13 +1396,13 @@
         <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR5" t="n">
         <v>7</v>
       </c>
       <c r="AS5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT5" t="n">
         <v>10</v>
@@ -1347,22 +1414,22 @@
         <v>22</v>
       </c>
       <c r="AW5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC5" t="n">
         <v>18</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -1412,64 +1479,64 @@
         <v>37</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
         <v>20.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.388</v>
+        <v>0.386</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="P6" t="n">
-        <v>24.5</v>
+        <v>24.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.756</v>
+        <v>0.753</v>
       </c>
       <c r="R6" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T6" t="n">
         <v>41.8</v>
       </c>
       <c r="U6" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.6</v>
+        <v>100.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="AD6" t="n">
         <v>30</v>
@@ -1490,31 +1557,31 @@
         <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
         <v>4</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>22</v>
       </c>
       <c r="AR6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1526,22 +1593,22 @@
         <v>24</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW6" t="n">
         <v>10</v>
       </c>
       <c r="AX6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1733,7 @@
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
         <v>7</v>
@@ -1699,10 +1766,10 @@
         <v>14</v>
       </c>
       <c r="AS7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT7" t="n">
         <v>6</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>7</v>
       </c>
       <c r="AU7" t="n">
         <v>11</v>
@@ -1726,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>6</v>
@@ -1854,13 +1921,13 @@
         <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
@@ -1881,10 +1948,10 @@
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
@@ -1896,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="AX8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY8" t="n">
         <v>27</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2127,7 @@
         <v>26</v>
       </c>
       <c r="AR9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS9" t="n">
         <v>16</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="n">
         <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>0.638</v>
+        <v>0.632</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2322,7 +2389,7 @@
         <v>35.5</v>
       </c>
       <c r="J11" t="n">
-        <v>79.59999999999999</v>
+        <v>79.8</v>
       </c>
       <c r="K11" t="n">
         <v>0.446</v>
@@ -2340,25 +2407,25 @@
         <v>19.6</v>
       </c>
       <c r="P11" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q11" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="R11" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S11" t="n">
         <v>32.3</v>
       </c>
       <c r="T11" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U11" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V11" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W11" t="n">
         <v>6.9</v>
@@ -2373,16 +2440,16 @@
         <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2394,13 +2461,13 @@
         <v>7</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
         <v>27</v>
       </c>
       <c r="AJ11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
         <v>24</v>
@@ -2409,37 +2476,37 @@
         <v>6</v>
       </c>
       <c r="AM11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
         <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
         <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2451,13 +2518,13 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BB11" t="n">
         <v>18</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
         <v>21</v>
@@ -2609,7 +2676,7 @@
         <v>12</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
@@ -2621,7 +2688,7 @@
         <v>24</v>
       </c>
       <c r="AW12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>26</v>
@@ -2758,7 +2825,7 @@
         <v>27</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2791,7 +2858,7 @@
         <v>11</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>22</v>
@@ -2812,7 +2879,7 @@
         <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -2865,22 +2932,22 @@
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>40.9</v>
+        <v>40.6</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.481</v>
+        <v>0.479</v>
       </c>
       <c r="L14" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O14" t="n">
         <v>20.7</v>
@@ -2889,25 +2956,25 @@
         <v>26.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R14" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T14" t="n">
         <v>44.4</v>
       </c>
       <c r="U14" t="n">
-        <v>23.9</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
         <v>13.6</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="X14" t="n">
         <v>5.2</v>
@@ -2916,16 +2983,16 @@
         <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA14" t="n">
         <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.5</v>
+        <v>108.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
         <v>12</v>
@@ -2940,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2949,7 +3016,7 @@
         <v>4</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2967,7 +3034,7 @@
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
@@ -2994,7 +3061,7 @@
         <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -3313,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3334,7 +3401,7 @@
         <v>24</v>
       </c>
       <c r="AR16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS16" t="n">
         <v>23</v>
@@ -3355,10 +3422,10 @@
         <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA16" t="n">
         <v>27</v>
@@ -3367,7 +3434,7 @@
         <v>23</v>
       </c>
       <c r="BC16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17" t="n">
         <v>28</v>
       </c>
       <c r="F17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
-        <v>0.475</v>
+        <v>0.467</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,10 +3481,10 @@
         <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L17" t="n">
         <v>5.9</v>
@@ -3426,31 +3493,31 @@
         <v>16.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O17" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="P17" t="n">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T17" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
         <v>7.3</v>
@@ -3462,19 +3529,19 @@
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="AA17" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3513,16 +3580,16 @@
         <v>7</v>
       </c>
       <c r="AQ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR17" t="n">
         <v>6</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU17" t="n">
         <v>10</v>
@@ -3549,7 +3616,7 @@
         <v>13</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -3695,7 +3762,7 @@
         <v>14</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
         <v>4</v>
@@ -3707,7 +3774,7 @@
         <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV18" t="n">
         <v>16</v>
@@ -3722,10 +3789,10 @@
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
         <v>14</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-2.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3865,7 +3932,7 @@
         <v>7</v>
       </c>
       <c r="AM19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN19" t="n">
         <v>10</v>
@@ -3874,10 +3941,10 @@
         <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
         <v>15</v>
@@ -3895,7 +3962,7 @@
         <v>9</v>
       </c>
       <c r="AW19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX19" t="n">
         <v>20</v>
@@ -3907,7 +3974,7 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4093,7 @@
         <v>10</v>
       </c>
       <c r="AF20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG20" t="n">
         <v>9</v>
@@ -4053,7 +4120,7 @@
         <v>6</v>
       </c>
       <c r="AO20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="n">
         <v>22</v>
@@ -4089,7 +4156,7 @@
         <v>15</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -4241,7 +4308,7 @@
         <v>24</v>
       </c>
       <c r="AQ21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR21" t="n">
         <v>13</v>
@@ -4250,7 +4317,7 @@
         <v>8</v>
       </c>
       <c r="AT21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU21" t="n">
         <v>9</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4463,7 @@
         <v>28</v>
       </c>
       <c r="AH22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="n">
         <v>14</v>
@@ -4453,7 +4520,7 @@
         <v>14</v>
       </c>
       <c r="BA22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB22" t="n">
         <v>19</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -4578,13 +4645,13 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK23" t="n">
         <v>9</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -4632,7 +4699,7 @@
         <v>3</v>
       </c>
       <c r="AZ23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4872,7 @@
         <v>21</v>
       </c>
       <c r="AW24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
         <v>8</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" t="n">
         <v>32</v>
       </c>
       <c r="F25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,19 +4937,19 @@
         <v>39.6</v>
       </c>
       <c r="J25" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5</v>
+        <v>0.501</v>
       </c>
       <c r="L25" t="n">
         <v>6.5</v>
       </c>
       <c r="M25" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.386</v>
+        <v>0.388</v>
       </c>
       <c r="O25" t="n">
         <v>20.9</v>
@@ -4894,10 +4961,10 @@
         <v>0.763</v>
       </c>
       <c r="R25" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S25" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T25" t="n">
         <v>41.6</v>
@@ -4909,7 +4976,7 @@
         <v>16.2</v>
       </c>
       <c r="W25" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X25" t="n">
         <v>4.9</v>
@@ -4918,7 +4985,7 @@
         <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA25" t="n">
         <v>22.8</v>
@@ -4927,10 +4994,10 @@
         <v>106.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4948,19 +5015,19 @@
         <v>2</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM25" t="n">
         <v>19</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO25" t="n">
         <v>4</v>
@@ -4972,7 +5039,7 @@
         <v>18</v>
       </c>
       <c r="AR25" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AS25" t="n">
         <v>9</v>
@@ -4996,7 +5063,7 @@
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA25" t="n">
         <v>6</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -5034,52 +5101,52 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E26" t="n">
         <v>35</v>
       </c>
       <c r="F26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>0.625</v>
+        <v>0.614</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J26" t="n">
-        <v>79.3</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.461</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O26" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P26" t="n">
-        <v>24.3</v>
+        <v>24.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="T26" t="n">
         <v>41.3</v>
@@ -5097,34 +5164,34 @@
         <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG26" t="n">
         <v>8</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
@@ -5142,16 +5209,16 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
         <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5166,7 +5233,7 @@
         <v>20</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW26" t="n">
         <v>25</v>
@@ -5178,13 +5245,13 @@
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA26" t="n">
         <v>17</v>
       </c>
-      <c r="BA26" t="n">
-        <v>14</v>
-      </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-9.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5318,7 +5385,7 @@
         <v>25</v>
       </c>
       <c r="AL27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM27" t="n">
         <v>15</v>
@@ -5336,7 +5403,7 @@
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS27" t="n">
         <v>28</v>
@@ -5366,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -5494,13 +5561,13 @@
         <v>11</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK28" t="n">
         <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM28" t="n">
         <v>8</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR28" t="n">
         <v>29</v>
@@ -5524,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
@@ -5676,7 +5743,7 @@
         <v>19</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK29" t="n">
         <v>11</v>
@@ -5691,7 +5758,7 @@
         <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP29" t="n">
         <v>27</v>
@@ -5727,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>3.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>8</v>
@@ -5858,10 +5925,10 @@
         <v>6</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5879,7 +5946,7 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6128,7 @@
         <v>26</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
         <v>8</v>
@@ -6079,7 +6146,7 @@
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-26-2008-09</t>
+          <t>2009-02-26</t>
         </is>
       </c>
     </row>
